--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC72-EQUIPO DHS-DCS ACERO # 2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC72-EQUIPO DHS-DCS ACERO # 2.xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B2199E95-96AC-44C8-B8D0-F4486AF7AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12405" yWindow="90" windowWidth="11070" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -639,7 +629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -1274,6 +1264,48 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,53 +1335,11 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1709,416 +1699,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:C96"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="86.26953125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" style="9" customWidth="1"/>
-    <col min="6" max="11" width="11.453125" style="7"/>
-    <col min="12" max="12" width="14.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="258" width="11.453125" style="7"/>
-    <col min="259" max="259" width="13.1796875" style="7" customWidth="1"/>
-    <col min="260" max="260" width="15.1796875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="9" customWidth="1"/>
+    <col min="6" max="11" width="11.42578125" style="7"/>
+    <col min="12" max="12" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="11.42578125" style="7"/>
+    <col min="259" max="259" width="13.140625" style="7" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="7" customWidth="1"/>
     <col min="261" max="261" width="42" style="7" customWidth="1"/>
-    <col min="262" max="262" width="11.453125" style="7"/>
-    <col min="263" max="263" width="13.1796875" style="7" customWidth="1"/>
-    <col min="264" max="514" width="11.453125" style="7"/>
-    <col min="515" max="515" width="13.1796875" style="7" customWidth="1"/>
-    <col min="516" max="516" width="15.1796875" style="7" customWidth="1"/>
+    <col min="262" max="262" width="11.42578125" style="7"/>
+    <col min="263" max="263" width="13.140625" style="7" customWidth="1"/>
+    <col min="264" max="514" width="11.42578125" style="7"/>
+    <col min="515" max="515" width="13.140625" style="7" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="7" customWidth="1"/>
     <col min="517" max="517" width="42" style="7" customWidth="1"/>
-    <col min="518" max="518" width="11.453125" style="7"/>
-    <col min="519" max="519" width="13.1796875" style="7" customWidth="1"/>
-    <col min="520" max="770" width="11.453125" style="7"/>
-    <col min="771" max="771" width="13.1796875" style="7" customWidth="1"/>
-    <col min="772" max="772" width="15.1796875" style="7" customWidth="1"/>
+    <col min="518" max="518" width="11.42578125" style="7"/>
+    <col min="519" max="519" width="13.140625" style="7" customWidth="1"/>
+    <col min="520" max="770" width="11.42578125" style="7"/>
+    <col min="771" max="771" width="13.140625" style="7" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="7" customWidth="1"/>
     <col min="773" max="773" width="42" style="7" customWidth="1"/>
-    <col min="774" max="774" width="11.453125" style="7"/>
-    <col min="775" max="775" width="13.1796875" style="7" customWidth="1"/>
-    <col min="776" max="1026" width="11.453125" style="7"/>
-    <col min="1027" max="1027" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="15.1796875" style="7" customWidth="1"/>
+    <col min="774" max="774" width="11.42578125" style="7"/>
+    <col min="775" max="775" width="13.140625" style="7" customWidth="1"/>
+    <col min="776" max="1026" width="11.42578125" style="7"/>
+    <col min="1027" max="1027" width="13.140625" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="7" customWidth="1"/>
     <col min="1029" max="1029" width="42" style="7" customWidth="1"/>
-    <col min="1030" max="1030" width="11.453125" style="7"/>
-    <col min="1031" max="1031" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1032" max="1282" width="11.453125" style="7"/>
-    <col min="1283" max="1283" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="15.1796875" style="7" customWidth="1"/>
+    <col min="1030" max="1030" width="11.42578125" style="7"/>
+    <col min="1031" max="1031" width="13.140625" style="7" customWidth="1"/>
+    <col min="1032" max="1282" width="11.42578125" style="7"/>
+    <col min="1283" max="1283" width="13.140625" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="7" customWidth="1"/>
     <col min="1285" max="1285" width="42" style="7" customWidth="1"/>
-    <col min="1286" max="1286" width="11.453125" style="7"/>
-    <col min="1287" max="1287" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1288" max="1538" width="11.453125" style="7"/>
-    <col min="1539" max="1539" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="15.1796875" style="7" customWidth="1"/>
+    <col min="1286" max="1286" width="11.42578125" style="7"/>
+    <col min="1287" max="1287" width="13.140625" style="7" customWidth="1"/>
+    <col min="1288" max="1538" width="11.42578125" style="7"/>
+    <col min="1539" max="1539" width="13.140625" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="7" customWidth="1"/>
     <col min="1541" max="1541" width="42" style="7" customWidth="1"/>
-    <col min="1542" max="1542" width="11.453125" style="7"/>
-    <col min="1543" max="1543" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1544" max="1794" width="11.453125" style="7"/>
-    <col min="1795" max="1795" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="15.1796875" style="7" customWidth="1"/>
+    <col min="1542" max="1542" width="11.42578125" style="7"/>
+    <col min="1543" max="1543" width="13.140625" style="7" customWidth="1"/>
+    <col min="1544" max="1794" width="11.42578125" style="7"/>
+    <col min="1795" max="1795" width="13.140625" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="7" customWidth="1"/>
     <col min="1797" max="1797" width="42" style="7" customWidth="1"/>
-    <col min="1798" max="1798" width="11.453125" style="7"/>
-    <col min="1799" max="1799" width="13.1796875" style="7" customWidth="1"/>
-    <col min="1800" max="2050" width="11.453125" style="7"/>
-    <col min="2051" max="2051" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="15.1796875" style="7" customWidth="1"/>
+    <col min="1798" max="1798" width="11.42578125" style="7"/>
+    <col min="1799" max="1799" width="13.140625" style="7" customWidth="1"/>
+    <col min="1800" max="2050" width="11.42578125" style="7"/>
+    <col min="2051" max="2051" width="13.140625" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="7" customWidth="1"/>
     <col min="2053" max="2053" width="42" style="7" customWidth="1"/>
-    <col min="2054" max="2054" width="11.453125" style="7"/>
-    <col min="2055" max="2055" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2056" max="2306" width="11.453125" style="7"/>
-    <col min="2307" max="2307" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="15.1796875" style="7" customWidth="1"/>
+    <col min="2054" max="2054" width="11.42578125" style="7"/>
+    <col min="2055" max="2055" width="13.140625" style="7" customWidth="1"/>
+    <col min="2056" max="2306" width="11.42578125" style="7"/>
+    <col min="2307" max="2307" width="13.140625" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="7" customWidth="1"/>
     <col min="2309" max="2309" width="42" style="7" customWidth="1"/>
-    <col min="2310" max="2310" width="11.453125" style="7"/>
-    <col min="2311" max="2311" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2312" max="2562" width="11.453125" style="7"/>
-    <col min="2563" max="2563" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="15.1796875" style="7" customWidth="1"/>
+    <col min="2310" max="2310" width="11.42578125" style="7"/>
+    <col min="2311" max="2311" width="13.140625" style="7" customWidth="1"/>
+    <col min="2312" max="2562" width="11.42578125" style="7"/>
+    <col min="2563" max="2563" width="13.140625" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="7" customWidth="1"/>
     <col min="2565" max="2565" width="42" style="7" customWidth="1"/>
-    <col min="2566" max="2566" width="11.453125" style="7"/>
-    <col min="2567" max="2567" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2568" max="2818" width="11.453125" style="7"/>
-    <col min="2819" max="2819" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="15.1796875" style="7" customWidth="1"/>
+    <col min="2566" max="2566" width="11.42578125" style="7"/>
+    <col min="2567" max="2567" width="13.140625" style="7" customWidth="1"/>
+    <col min="2568" max="2818" width="11.42578125" style="7"/>
+    <col min="2819" max="2819" width="13.140625" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="7" customWidth="1"/>
     <col min="2821" max="2821" width="42" style="7" customWidth="1"/>
-    <col min="2822" max="2822" width="11.453125" style="7"/>
-    <col min="2823" max="2823" width="13.1796875" style="7" customWidth="1"/>
-    <col min="2824" max="3074" width="11.453125" style="7"/>
-    <col min="3075" max="3075" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="15.1796875" style="7" customWidth="1"/>
+    <col min="2822" max="2822" width="11.42578125" style="7"/>
+    <col min="2823" max="2823" width="13.140625" style="7" customWidth="1"/>
+    <col min="2824" max="3074" width="11.42578125" style="7"/>
+    <col min="3075" max="3075" width="13.140625" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="7" customWidth="1"/>
     <col min="3077" max="3077" width="42" style="7" customWidth="1"/>
-    <col min="3078" max="3078" width="11.453125" style="7"/>
-    <col min="3079" max="3079" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3080" max="3330" width="11.453125" style="7"/>
-    <col min="3331" max="3331" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="15.1796875" style="7" customWidth="1"/>
+    <col min="3078" max="3078" width="11.42578125" style="7"/>
+    <col min="3079" max="3079" width="13.140625" style="7" customWidth="1"/>
+    <col min="3080" max="3330" width="11.42578125" style="7"/>
+    <col min="3331" max="3331" width="13.140625" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="7" customWidth="1"/>
     <col min="3333" max="3333" width="42" style="7" customWidth="1"/>
-    <col min="3334" max="3334" width="11.453125" style="7"/>
-    <col min="3335" max="3335" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3336" max="3586" width="11.453125" style="7"/>
-    <col min="3587" max="3587" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="15.1796875" style="7" customWidth="1"/>
+    <col min="3334" max="3334" width="11.42578125" style="7"/>
+    <col min="3335" max="3335" width="13.140625" style="7" customWidth="1"/>
+    <col min="3336" max="3586" width="11.42578125" style="7"/>
+    <col min="3587" max="3587" width="13.140625" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="7" customWidth="1"/>
     <col min="3589" max="3589" width="42" style="7" customWidth="1"/>
-    <col min="3590" max="3590" width="11.453125" style="7"/>
-    <col min="3591" max="3591" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3592" max="3842" width="11.453125" style="7"/>
-    <col min="3843" max="3843" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="15.1796875" style="7" customWidth="1"/>
+    <col min="3590" max="3590" width="11.42578125" style="7"/>
+    <col min="3591" max="3591" width="13.140625" style="7" customWidth="1"/>
+    <col min="3592" max="3842" width="11.42578125" style="7"/>
+    <col min="3843" max="3843" width="13.140625" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="7" customWidth="1"/>
     <col min="3845" max="3845" width="42" style="7" customWidth="1"/>
-    <col min="3846" max="3846" width="11.453125" style="7"/>
-    <col min="3847" max="3847" width="13.1796875" style="7" customWidth="1"/>
-    <col min="3848" max="4098" width="11.453125" style="7"/>
-    <col min="4099" max="4099" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="15.1796875" style="7" customWidth="1"/>
+    <col min="3846" max="3846" width="11.42578125" style="7"/>
+    <col min="3847" max="3847" width="13.140625" style="7" customWidth="1"/>
+    <col min="3848" max="4098" width="11.42578125" style="7"/>
+    <col min="4099" max="4099" width="13.140625" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="7" customWidth="1"/>
     <col min="4101" max="4101" width="42" style="7" customWidth="1"/>
-    <col min="4102" max="4102" width="11.453125" style="7"/>
-    <col min="4103" max="4103" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4104" max="4354" width="11.453125" style="7"/>
-    <col min="4355" max="4355" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="15.1796875" style="7" customWidth="1"/>
+    <col min="4102" max="4102" width="11.42578125" style="7"/>
+    <col min="4103" max="4103" width="13.140625" style="7" customWidth="1"/>
+    <col min="4104" max="4354" width="11.42578125" style="7"/>
+    <col min="4355" max="4355" width="13.140625" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="7" customWidth="1"/>
     <col min="4357" max="4357" width="42" style="7" customWidth="1"/>
-    <col min="4358" max="4358" width="11.453125" style="7"/>
-    <col min="4359" max="4359" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4360" max="4610" width="11.453125" style="7"/>
-    <col min="4611" max="4611" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="15.1796875" style="7" customWidth="1"/>
+    <col min="4358" max="4358" width="11.42578125" style="7"/>
+    <col min="4359" max="4359" width="13.140625" style="7" customWidth="1"/>
+    <col min="4360" max="4610" width="11.42578125" style="7"/>
+    <col min="4611" max="4611" width="13.140625" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="7" customWidth="1"/>
     <col min="4613" max="4613" width="42" style="7" customWidth="1"/>
-    <col min="4614" max="4614" width="11.453125" style="7"/>
-    <col min="4615" max="4615" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4616" max="4866" width="11.453125" style="7"/>
-    <col min="4867" max="4867" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="15.1796875" style="7" customWidth="1"/>
+    <col min="4614" max="4614" width="11.42578125" style="7"/>
+    <col min="4615" max="4615" width="13.140625" style="7" customWidth="1"/>
+    <col min="4616" max="4866" width="11.42578125" style="7"/>
+    <col min="4867" max="4867" width="13.140625" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="7" customWidth="1"/>
     <col min="4869" max="4869" width="42" style="7" customWidth="1"/>
-    <col min="4870" max="4870" width="11.453125" style="7"/>
-    <col min="4871" max="4871" width="13.1796875" style="7" customWidth="1"/>
-    <col min="4872" max="5122" width="11.453125" style="7"/>
-    <col min="5123" max="5123" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="15.1796875" style="7" customWidth="1"/>
+    <col min="4870" max="4870" width="11.42578125" style="7"/>
+    <col min="4871" max="4871" width="13.140625" style="7" customWidth="1"/>
+    <col min="4872" max="5122" width="11.42578125" style="7"/>
+    <col min="5123" max="5123" width="13.140625" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="7" customWidth="1"/>
     <col min="5125" max="5125" width="42" style="7" customWidth="1"/>
-    <col min="5126" max="5126" width="11.453125" style="7"/>
-    <col min="5127" max="5127" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5128" max="5378" width="11.453125" style="7"/>
-    <col min="5379" max="5379" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="15.1796875" style="7" customWidth="1"/>
+    <col min="5126" max="5126" width="11.42578125" style="7"/>
+    <col min="5127" max="5127" width="13.140625" style="7" customWidth="1"/>
+    <col min="5128" max="5378" width="11.42578125" style="7"/>
+    <col min="5379" max="5379" width="13.140625" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="7" customWidth="1"/>
     <col min="5381" max="5381" width="42" style="7" customWidth="1"/>
-    <col min="5382" max="5382" width="11.453125" style="7"/>
-    <col min="5383" max="5383" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5384" max="5634" width="11.453125" style="7"/>
-    <col min="5635" max="5635" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="15.1796875" style="7" customWidth="1"/>
+    <col min="5382" max="5382" width="11.42578125" style="7"/>
+    <col min="5383" max="5383" width="13.140625" style="7" customWidth="1"/>
+    <col min="5384" max="5634" width="11.42578125" style="7"/>
+    <col min="5635" max="5635" width="13.140625" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="7" customWidth="1"/>
     <col min="5637" max="5637" width="42" style="7" customWidth="1"/>
-    <col min="5638" max="5638" width="11.453125" style="7"/>
-    <col min="5639" max="5639" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5640" max="5890" width="11.453125" style="7"/>
-    <col min="5891" max="5891" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="15.1796875" style="7" customWidth="1"/>
+    <col min="5638" max="5638" width="11.42578125" style="7"/>
+    <col min="5639" max="5639" width="13.140625" style="7" customWidth="1"/>
+    <col min="5640" max="5890" width="11.42578125" style="7"/>
+    <col min="5891" max="5891" width="13.140625" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="7" customWidth="1"/>
     <col min="5893" max="5893" width="42" style="7" customWidth="1"/>
-    <col min="5894" max="5894" width="11.453125" style="7"/>
-    <col min="5895" max="5895" width="13.1796875" style="7" customWidth="1"/>
-    <col min="5896" max="6146" width="11.453125" style="7"/>
-    <col min="6147" max="6147" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="15.1796875" style="7" customWidth="1"/>
+    <col min="5894" max="5894" width="11.42578125" style="7"/>
+    <col min="5895" max="5895" width="13.140625" style="7" customWidth="1"/>
+    <col min="5896" max="6146" width="11.42578125" style="7"/>
+    <col min="6147" max="6147" width="13.140625" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="7" customWidth="1"/>
     <col min="6149" max="6149" width="42" style="7" customWidth="1"/>
-    <col min="6150" max="6150" width="11.453125" style="7"/>
-    <col min="6151" max="6151" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6152" max="6402" width="11.453125" style="7"/>
-    <col min="6403" max="6403" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="15.1796875" style="7" customWidth="1"/>
+    <col min="6150" max="6150" width="11.42578125" style="7"/>
+    <col min="6151" max="6151" width="13.140625" style="7" customWidth="1"/>
+    <col min="6152" max="6402" width="11.42578125" style="7"/>
+    <col min="6403" max="6403" width="13.140625" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="7" customWidth="1"/>
     <col min="6405" max="6405" width="42" style="7" customWidth="1"/>
-    <col min="6406" max="6406" width="11.453125" style="7"/>
-    <col min="6407" max="6407" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6408" max="6658" width="11.453125" style="7"/>
-    <col min="6659" max="6659" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="15.1796875" style="7" customWidth="1"/>
+    <col min="6406" max="6406" width="11.42578125" style="7"/>
+    <col min="6407" max="6407" width="13.140625" style="7" customWidth="1"/>
+    <col min="6408" max="6658" width="11.42578125" style="7"/>
+    <col min="6659" max="6659" width="13.140625" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="7" customWidth="1"/>
     <col min="6661" max="6661" width="42" style="7" customWidth="1"/>
-    <col min="6662" max="6662" width="11.453125" style="7"/>
-    <col min="6663" max="6663" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6664" max="6914" width="11.453125" style="7"/>
-    <col min="6915" max="6915" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="15.1796875" style="7" customWidth="1"/>
+    <col min="6662" max="6662" width="11.42578125" style="7"/>
+    <col min="6663" max="6663" width="13.140625" style="7" customWidth="1"/>
+    <col min="6664" max="6914" width="11.42578125" style="7"/>
+    <col min="6915" max="6915" width="13.140625" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="7" customWidth="1"/>
     <col min="6917" max="6917" width="42" style="7" customWidth="1"/>
-    <col min="6918" max="6918" width="11.453125" style="7"/>
-    <col min="6919" max="6919" width="13.1796875" style="7" customWidth="1"/>
-    <col min="6920" max="7170" width="11.453125" style="7"/>
-    <col min="7171" max="7171" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="15.1796875" style="7" customWidth="1"/>
+    <col min="6918" max="6918" width="11.42578125" style="7"/>
+    <col min="6919" max="6919" width="13.140625" style="7" customWidth="1"/>
+    <col min="6920" max="7170" width="11.42578125" style="7"/>
+    <col min="7171" max="7171" width="13.140625" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="7" customWidth="1"/>
     <col min="7173" max="7173" width="42" style="7" customWidth="1"/>
-    <col min="7174" max="7174" width="11.453125" style="7"/>
-    <col min="7175" max="7175" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7176" max="7426" width="11.453125" style="7"/>
-    <col min="7427" max="7427" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="15.1796875" style="7" customWidth="1"/>
+    <col min="7174" max="7174" width="11.42578125" style="7"/>
+    <col min="7175" max="7175" width="13.140625" style="7" customWidth="1"/>
+    <col min="7176" max="7426" width="11.42578125" style="7"/>
+    <col min="7427" max="7427" width="13.140625" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="7" customWidth="1"/>
     <col min="7429" max="7429" width="42" style="7" customWidth="1"/>
-    <col min="7430" max="7430" width="11.453125" style="7"/>
-    <col min="7431" max="7431" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7432" max="7682" width="11.453125" style="7"/>
-    <col min="7683" max="7683" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="15.1796875" style="7" customWidth="1"/>
+    <col min="7430" max="7430" width="11.42578125" style="7"/>
+    <col min="7431" max="7431" width="13.140625" style="7" customWidth="1"/>
+    <col min="7432" max="7682" width="11.42578125" style="7"/>
+    <col min="7683" max="7683" width="13.140625" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="7" customWidth="1"/>
     <col min="7685" max="7685" width="42" style="7" customWidth="1"/>
-    <col min="7686" max="7686" width="11.453125" style="7"/>
-    <col min="7687" max="7687" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7688" max="7938" width="11.453125" style="7"/>
-    <col min="7939" max="7939" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="15.1796875" style="7" customWidth="1"/>
+    <col min="7686" max="7686" width="11.42578125" style="7"/>
+    <col min="7687" max="7687" width="13.140625" style="7" customWidth="1"/>
+    <col min="7688" max="7938" width="11.42578125" style="7"/>
+    <col min="7939" max="7939" width="13.140625" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="7" customWidth="1"/>
     <col min="7941" max="7941" width="42" style="7" customWidth="1"/>
-    <col min="7942" max="7942" width="11.453125" style="7"/>
-    <col min="7943" max="7943" width="13.1796875" style="7" customWidth="1"/>
-    <col min="7944" max="8194" width="11.453125" style="7"/>
-    <col min="8195" max="8195" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="15.1796875" style="7" customWidth="1"/>
+    <col min="7942" max="7942" width="11.42578125" style="7"/>
+    <col min="7943" max="7943" width="13.140625" style="7" customWidth="1"/>
+    <col min="7944" max="8194" width="11.42578125" style="7"/>
+    <col min="8195" max="8195" width="13.140625" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="7" customWidth="1"/>
     <col min="8197" max="8197" width="42" style="7" customWidth="1"/>
-    <col min="8198" max="8198" width="11.453125" style="7"/>
-    <col min="8199" max="8199" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8200" max="8450" width="11.453125" style="7"/>
-    <col min="8451" max="8451" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="15.1796875" style="7" customWidth="1"/>
+    <col min="8198" max="8198" width="11.42578125" style="7"/>
+    <col min="8199" max="8199" width="13.140625" style="7" customWidth="1"/>
+    <col min="8200" max="8450" width="11.42578125" style="7"/>
+    <col min="8451" max="8451" width="13.140625" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="7" customWidth="1"/>
     <col min="8453" max="8453" width="42" style="7" customWidth="1"/>
-    <col min="8454" max="8454" width="11.453125" style="7"/>
-    <col min="8455" max="8455" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8456" max="8706" width="11.453125" style="7"/>
-    <col min="8707" max="8707" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="15.1796875" style="7" customWidth="1"/>
+    <col min="8454" max="8454" width="11.42578125" style="7"/>
+    <col min="8455" max="8455" width="13.140625" style="7" customWidth="1"/>
+    <col min="8456" max="8706" width="11.42578125" style="7"/>
+    <col min="8707" max="8707" width="13.140625" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="7" customWidth="1"/>
     <col min="8709" max="8709" width="42" style="7" customWidth="1"/>
-    <col min="8710" max="8710" width="11.453125" style="7"/>
-    <col min="8711" max="8711" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8712" max="8962" width="11.453125" style="7"/>
-    <col min="8963" max="8963" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="15.1796875" style="7" customWidth="1"/>
+    <col min="8710" max="8710" width="11.42578125" style="7"/>
+    <col min="8711" max="8711" width="13.140625" style="7" customWidth="1"/>
+    <col min="8712" max="8962" width="11.42578125" style="7"/>
+    <col min="8963" max="8963" width="13.140625" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="7" customWidth="1"/>
     <col min="8965" max="8965" width="42" style="7" customWidth="1"/>
-    <col min="8966" max="8966" width="11.453125" style="7"/>
-    <col min="8967" max="8967" width="13.1796875" style="7" customWidth="1"/>
-    <col min="8968" max="9218" width="11.453125" style="7"/>
-    <col min="9219" max="9219" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="15.1796875" style="7" customWidth="1"/>
+    <col min="8966" max="8966" width="11.42578125" style="7"/>
+    <col min="8967" max="8967" width="13.140625" style="7" customWidth="1"/>
+    <col min="8968" max="9218" width="11.42578125" style="7"/>
+    <col min="9219" max="9219" width="13.140625" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="7" customWidth="1"/>
     <col min="9221" max="9221" width="42" style="7" customWidth="1"/>
-    <col min="9222" max="9222" width="11.453125" style="7"/>
-    <col min="9223" max="9223" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9224" max="9474" width="11.453125" style="7"/>
-    <col min="9475" max="9475" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="15.1796875" style="7" customWidth="1"/>
+    <col min="9222" max="9222" width="11.42578125" style="7"/>
+    <col min="9223" max="9223" width="13.140625" style="7" customWidth="1"/>
+    <col min="9224" max="9474" width="11.42578125" style="7"/>
+    <col min="9475" max="9475" width="13.140625" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="7" customWidth="1"/>
     <col min="9477" max="9477" width="42" style="7" customWidth="1"/>
-    <col min="9478" max="9478" width="11.453125" style="7"/>
-    <col min="9479" max="9479" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9480" max="9730" width="11.453125" style="7"/>
-    <col min="9731" max="9731" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="15.1796875" style="7" customWidth="1"/>
+    <col min="9478" max="9478" width="11.42578125" style="7"/>
+    <col min="9479" max="9479" width="13.140625" style="7" customWidth="1"/>
+    <col min="9480" max="9730" width="11.42578125" style="7"/>
+    <col min="9731" max="9731" width="13.140625" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="7" customWidth="1"/>
     <col min="9733" max="9733" width="42" style="7" customWidth="1"/>
-    <col min="9734" max="9734" width="11.453125" style="7"/>
-    <col min="9735" max="9735" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9736" max="9986" width="11.453125" style="7"/>
-    <col min="9987" max="9987" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="15.1796875" style="7" customWidth="1"/>
+    <col min="9734" max="9734" width="11.42578125" style="7"/>
+    <col min="9735" max="9735" width="13.140625" style="7" customWidth="1"/>
+    <col min="9736" max="9986" width="11.42578125" style="7"/>
+    <col min="9987" max="9987" width="13.140625" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="7" customWidth="1"/>
     <col min="9989" max="9989" width="42" style="7" customWidth="1"/>
-    <col min="9990" max="9990" width="11.453125" style="7"/>
-    <col min="9991" max="9991" width="13.1796875" style="7" customWidth="1"/>
-    <col min="9992" max="10242" width="11.453125" style="7"/>
-    <col min="10243" max="10243" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="15.1796875" style="7" customWidth="1"/>
+    <col min="9990" max="9990" width="11.42578125" style="7"/>
+    <col min="9991" max="9991" width="13.140625" style="7" customWidth="1"/>
+    <col min="9992" max="10242" width="11.42578125" style="7"/>
+    <col min="10243" max="10243" width="13.140625" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="7" customWidth="1"/>
     <col min="10245" max="10245" width="42" style="7" customWidth="1"/>
-    <col min="10246" max="10246" width="11.453125" style="7"/>
-    <col min="10247" max="10247" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10248" max="10498" width="11.453125" style="7"/>
-    <col min="10499" max="10499" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10246" max="10246" width="11.42578125" style="7"/>
+    <col min="10247" max="10247" width="13.140625" style="7" customWidth="1"/>
+    <col min="10248" max="10498" width="11.42578125" style="7"/>
+    <col min="10499" max="10499" width="13.140625" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="7" customWidth="1"/>
     <col min="10501" max="10501" width="42" style="7" customWidth="1"/>
-    <col min="10502" max="10502" width="11.453125" style="7"/>
-    <col min="10503" max="10503" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10504" max="10754" width="11.453125" style="7"/>
-    <col min="10755" max="10755" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10502" max="10502" width="11.42578125" style="7"/>
+    <col min="10503" max="10503" width="13.140625" style="7" customWidth="1"/>
+    <col min="10504" max="10754" width="11.42578125" style="7"/>
+    <col min="10755" max="10755" width="13.140625" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="7" customWidth="1"/>
     <col min="10757" max="10757" width="42" style="7" customWidth="1"/>
-    <col min="10758" max="10758" width="11.453125" style="7"/>
-    <col min="10759" max="10759" width="13.1796875" style="7" customWidth="1"/>
-    <col min="10760" max="11010" width="11.453125" style="7"/>
-    <col min="11011" max="11011" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10758" max="10758" width="11.42578125" style="7"/>
+    <col min="10759" max="10759" width="13.140625" style="7" customWidth="1"/>
+    <col min="10760" max="11010" width="11.42578125" style="7"/>
+    <col min="11011" max="11011" width="13.140625" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="7" customWidth="1"/>
     <col min="11013" max="11013" width="42" style="7" customWidth="1"/>
-    <col min="11014" max="11014" width="11.453125" style="7"/>
-    <col min="11015" max="11015" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11016" max="11266" width="11.453125" style="7"/>
-    <col min="11267" max="11267" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="15.1796875" style="7" customWidth="1"/>
+    <col min="11014" max="11014" width="11.42578125" style="7"/>
+    <col min="11015" max="11015" width="13.140625" style="7" customWidth="1"/>
+    <col min="11016" max="11266" width="11.42578125" style="7"/>
+    <col min="11267" max="11267" width="13.140625" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="7" customWidth="1"/>
     <col min="11269" max="11269" width="42" style="7" customWidth="1"/>
-    <col min="11270" max="11270" width="11.453125" style="7"/>
-    <col min="11271" max="11271" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11272" max="11522" width="11.453125" style="7"/>
-    <col min="11523" max="11523" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="15.1796875" style="7" customWidth="1"/>
+    <col min="11270" max="11270" width="11.42578125" style="7"/>
+    <col min="11271" max="11271" width="13.140625" style="7" customWidth="1"/>
+    <col min="11272" max="11522" width="11.42578125" style="7"/>
+    <col min="11523" max="11523" width="13.140625" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="7" customWidth="1"/>
     <col min="11525" max="11525" width="42" style="7" customWidth="1"/>
-    <col min="11526" max="11526" width="11.453125" style="7"/>
-    <col min="11527" max="11527" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11528" max="11778" width="11.453125" style="7"/>
-    <col min="11779" max="11779" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="15.1796875" style="7" customWidth="1"/>
+    <col min="11526" max="11526" width="11.42578125" style="7"/>
+    <col min="11527" max="11527" width="13.140625" style="7" customWidth="1"/>
+    <col min="11528" max="11778" width="11.42578125" style="7"/>
+    <col min="11779" max="11779" width="13.140625" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="7" customWidth="1"/>
     <col min="11781" max="11781" width="42" style="7" customWidth="1"/>
-    <col min="11782" max="11782" width="11.453125" style="7"/>
-    <col min="11783" max="11783" width="13.1796875" style="7" customWidth="1"/>
-    <col min="11784" max="12034" width="11.453125" style="7"/>
-    <col min="12035" max="12035" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="15.1796875" style="7" customWidth="1"/>
+    <col min="11782" max="11782" width="11.42578125" style="7"/>
+    <col min="11783" max="11783" width="13.140625" style="7" customWidth="1"/>
+    <col min="11784" max="12034" width="11.42578125" style="7"/>
+    <col min="12035" max="12035" width="13.140625" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="7" customWidth="1"/>
     <col min="12037" max="12037" width="42" style="7" customWidth="1"/>
-    <col min="12038" max="12038" width="11.453125" style="7"/>
-    <col min="12039" max="12039" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12040" max="12290" width="11.453125" style="7"/>
-    <col min="12291" max="12291" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="15.1796875" style="7" customWidth="1"/>
+    <col min="12038" max="12038" width="11.42578125" style="7"/>
+    <col min="12039" max="12039" width="13.140625" style="7" customWidth="1"/>
+    <col min="12040" max="12290" width="11.42578125" style="7"/>
+    <col min="12291" max="12291" width="13.140625" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="7" customWidth="1"/>
     <col min="12293" max="12293" width="42" style="7" customWidth="1"/>
-    <col min="12294" max="12294" width="11.453125" style="7"/>
-    <col min="12295" max="12295" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12296" max="12546" width="11.453125" style="7"/>
-    <col min="12547" max="12547" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="15.1796875" style="7" customWidth="1"/>
+    <col min="12294" max="12294" width="11.42578125" style="7"/>
+    <col min="12295" max="12295" width="13.140625" style="7" customWidth="1"/>
+    <col min="12296" max="12546" width="11.42578125" style="7"/>
+    <col min="12547" max="12547" width="13.140625" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="7" customWidth="1"/>
     <col min="12549" max="12549" width="42" style="7" customWidth="1"/>
-    <col min="12550" max="12550" width="11.453125" style="7"/>
-    <col min="12551" max="12551" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12552" max="12802" width="11.453125" style="7"/>
-    <col min="12803" max="12803" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="15.1796875" style="7" customWidth="1"/>
+    <col min="12550" max="12550" width="11.42578125" style="7"/>
+    <col min="12551" max="12551" width="13.140625" style="7" customWidth="1"/>
+    <col min="12552" max="12802" width="11.42578125" style="7"/>
+    <col min="12803" max="12803" width="13.140625" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="7" customWidth="1"/>
     <col min="12805" max="12805" width="42" style="7" customWidth="1"/>
-    <col min="12806" max="12806" width="11.453125" style="7"/>
-    <col min="12807" max="12807" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12808" max="13058" width="11.453125" style="7"/>
-    <col min="13059" max="13059" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="15.1796875" style="7" customWidth="1"/>
+    <col min="12806" max="12806" width="11.42578125" style="7"/>
+    <col min="12807" max="12807" width="13.140625" style="7" customWidth="1"/>
+    <col min="12808" max="13058" width="11.42578125" style="7"/>
+    <col min="13059" max="13059" width="13.140625" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="7" customWidth="1"/>
     <col min="13061" max="13061" width="42" style="7" customWidth="1"/>
-    <col min="13062" max="13062" width="11.453125" style="7"/>
-    <col min="13063" max="13063" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13064" max="13314" width="11.453125" style="7"/>
-    <col min="13315" max="13315" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="15.1796875" style="7" customWidth="1"/>
+    <col min="13062" max="13062" width="11.42578125" style="7"/>
+    <col min="13063" max="13063" width="13.140625" style="7" customWidth="1"/>
+    <col min="13064" max="13314" width="11.42578125" style="7"/>
+    <col min="13315" max="13315" width="13.140625" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="7" customWidth="1"/>
     <col min="13317" max="13317" width="42" style="7" customWidth="1"/>
-    <col min="13318" max="13318" width="11.453125" style="7"/>
-    <col min="13319" max="13319" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13320" max="13570" width="11.453125" style="7"/>
-    <col min="13571" max="13571" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="15.1796875" style="7" customWidth="1"/>
+    <col min="13318" max="13318" width="11.42578125" style="7"/>
+    <col min="13319" max="13319" width="13.140625" style="7" customWidth="1"/>
+    <col min="13320" max="13570" width="11.42578125" style="7"/>
+    <col min="13571" max="13571" width="13.140625" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="7" customWidth="1"/>
     <col min="13573" max="13573" width="42" style="7" customWidth="1"/>
-    <col min="13574" max="13574" width="11.453125" style="7"/>
-    <col min="13575" max="13575" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13576" max="13826" width="11.453125" style="7"/>
-    <col min="13827" max="13827" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="15.1796875" style="7" customWidth="1"/>
+    <col min="13574" max="13574" width="11.42578125" style="7"/>
+    <col min="13575" max="13575" width="13.140625" style="7" customWidth="1"/>
+    <col min="13576" max="13826" width="11.42578125" style="7"/>
+    <col min="13827" max="13827" width="13.140625" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="7" customWidth="1"/>
     <col min="13829" max="13829" width="42" style="7" customWidth="1"/>
-    <col min="13830" max="13830" width="11.453125" style="7"/>
-    <col min="13831" max="13831" width="13.1796875" style="7" customWidth="1"/>
-    <col min="13832" max="14082" width="11.453125" style="7"/>
-    <col min="14083" max="14083" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="15.1796875" style="7" customWidth="1"/>
+    <col min="13830" max="13830" width="11.42578125" style="7"/>
+    <col min="13831" max="13831" width="13.140625" style="7" customWidth="1"/>
+    <col min="13832" max="14082" width="11.42578125" style="7"/>
+    <col min="14083" max="14083" width="13.140625" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="7" customWidth="1"/>
     <col min="14085" max="14085" width="42" style="7" customWidth="1"/>
-    <col min="14086" max="14086" width="11.453125" style="7"/>
-    <col min="14087" max="14087" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14088" max="14338" width="11.453125" style="7"/>
-    <col min="14339" max="14339" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="15.1796875" style="7" customWidth="1"/>
+    <col min="14086" max="14086" width="11.42578125" style="7"/>
+    <col min="14087" max="14087" width="13.140625" style="7" customWidth="1"/>
+    <col min="14088" max="14338" width="11.42578125" style="7"/>
+    <col min="14339" max="14339" width="13.140625" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="7" customWidth="1"/>
     <col min="14341" max="14341" width="42" style="7" customWidth="1"/>
-    <col min="14342" max="14342" width="11.453125" style="7"/>
-    <col min="14343" max="14343" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14344" max="14594" width="11.453125" style="7"/>
-    <col min="14595" max="14595" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="15.1796875" style="7" customWidth="1"/>
+    <col min="14342" max="14342" width="11.42578125" style="7"/>
+    <col min="14343" max="14343" width="13.140625" style="7" customWidth="1"/>
+    <col min="14344" max="14594" width="11.42578125" style="7"/>
+    <col min="14595" max="14595" width="13.140625" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="7" customWidth="1"/>
     <col min="14597" max="14597" width="42" style="7" customWidth="1"/>
-    <col min="14598" max="14598" width="11.453125" style="7"/>
-    <col min="14599" max="14599" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14600" max="14850" width="11.453125" style="7"/>
-    <col min="14851" max="14851" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="15.1796875" style="7" customWidth="1"/>
+    <col min="14598" max="14598" width="11.42578125" style="7"/>
+    <col min="14599" max="14599" width="13.140625" style="7" customWidth="1"/>
+    <col min="14600" max="14850" width="11.42578125" style="7"/>
+    <col min="14851" max="14851" width="13.140625" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="7" customWidth="1"/>
     <col min="14853" max="14853" width="42" style="7" customWidth="1"/>
-    <col min="14854" max="14854" width="11.453125" style="7"/>
-    <col min="14855" max="14855" width="13.1796875" style="7" customWidth="1"/>
-    <col min="14856" max="15106" width="11.453125" style="7"/>
-    <col min="15107" max="15107" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="15.1796875" style="7" customWidth="1"/>
+    <col min="14854" max="14854" width="11.42578125" style="7"/>
+    <col min="14855" max="14855" width="13.140625" style="7" customWidth="1"/>
+    <col min="14856" max="15106" width="11.42578125" style="7"/>
+    <col min="15107" max="15107" width="13.140625" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="7" customWidth="1"/>
     <col min="15109" max="15109" width="42" style="7" customWidth="1"/>
-    <col min="15110" max="15110" width="11.453125" style="7"/>
-    <col min="15111" max="15111" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15112" max="15362" width="11.453125" style="7"/>
-    <col min="15363" max="15363" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="15.1796875" style="7" customWidth="1"/>
+    <col min="15110" max="15110" width="11.42578125" style="7"/>
+    <col min="15111" max="15111" width="13.140625" style="7" customWidth="1"/>
+    <col min="15112" max="15362" width="11.42578125" style="7"/>
+    <col min="15363" max="15363" width="13.140625" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="7" customWidth="1"/>
     <col min="15365" max="15365" width="42" style="7" customWidth="1"/>
-    <col min="15366" max="15366" width="11.453125" style="7"/>
-    <col min="15367" max="15367" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15368" max="15618" width="11.453125" style="7"/>
-    <col min="15619" max="15619" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="15.1796875" style="7" customWidth="1"/>
+    <col min="15366" max="15366" width="11.42578125" style="7"/>
+    <col min="15367" max="15367" width="13.140625" style="7" customWidth="1"/>
+    <col min="15368" max="15618" width="11.42578125" style="7"/>
+    <col min="15619" max="15619" width="13.140625" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="7" customWidth="1"/>
     <col min="15621" max="15621" width="42" style="7" customWidth="1"/>
-    <col min="15622" max="15622" width="11.453125" style="7"/>
-    <col min="15623" max="15623" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15624" max="15874" width="11.453125" style="7"/>
-    <col min="15875" max="15875" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="15.1796875" style="7" customWidth="1"/>
+    <col min="15622" max="15622" width="11.42578125" style="7"/>
+    <col min="15623" max="15623" width="13.140625" style="7" customWidth="1"/>
+    <col min="15624" max="15874" width="11.42578125" style="7"/>
+    <col min="15875" max="15875" width="13.140625" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="7" customWidth="1"/>
     <col min="15877" max="15877" width="42" style="7" customWidth="1"/>
-    <col min="15878" max="15878" width="11.453125" style="7"/>
-    <col min="15879" max="15879" width="13.1796875" style="7" customWidth="1"/>
-    <col min="15880" max="16130" width="11.453125" style="7"/>
-    <col min="16131" max="16131" width="13.1796875" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="15.1796875" style="7" customWidth="1"/>
+    <col min="15878" max="15878" width="11.42578125" style="7"/>
+    <col min="15879" max="15879" width="13.140625" style="7" customWidth="1"/>
+    <col min="15880" max="16130" width="11.42578125" style="7"/>
+    <col min="16131" max="16131" width="13.140625" style="7" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="7" customWidth="1"/>
     <col min="16133" max="16133" width="42" style="7" customWidth="1"/>
-    <col min="16134" max="16134" width="11.453125" style="7"/>
-    <col min="16135" max="16135" width="13.1796875" style="7" customWidth="1"/>
-    <col min="16136" max="16384" width="11.453125" style="7"/>
+    <col min="16134" max="16134" width="11.42578125" style="7"/>
+    <col min="16135" max="16135" width="13.140625" style="7" customWidth="1"/>
+    <col min="16136" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2126,10 +2116,10 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="74"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
@@ -2141,16 +2131,16 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2158,41 +2148,41 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-    </row>
-    <row r="7" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24">
         <f ca="1">NOW()</f>
-        <v>45395.891886574071</v>
+        <v>45397.759814814817</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1</v>
@@ -2203,7 +2193,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2212,7 +2202,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
@@ -2229,7 +2219,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -2238,11 +2228,11 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="30" t="s">
         <v>135</v>
       </c>
@@ -2255,7 +2245,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -2264,7 +2254,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2271,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -2290,7 +2280,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2297,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -2316,7 +2306,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2319,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -2338,7 +2328,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2341,7 @@
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -2360,7 +2350,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>141</v>
       </c>
@@ -2371,7 +2361,7 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="39"/>
@@ -2380,7 +2370,7 @@
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
     </row>
-    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>10</v>
       </c>
@@ -2399,7 +2389,7 @@
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
     </row>
-    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>15</v>
       </c>
@@ -2416,7 +2406,7 @@
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
     </row>
-    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2423,7 @@
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2440,7 @@
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
     </row>
-    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2457,7 @@
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
     </row>
-    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
@@ -2484,7 +2474,7 @@
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
     </row>
-    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>27</v>
       </c>
@@ -2501,7 +2491,7 @@
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
     </row>
-    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
         <v>30</v>
       </c>
@@ -2518,7 +2508,7 @@
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2525,7 @@
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
     </row>
-    <row r="32" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2542,7 @@
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
     </row>
-    <row r="33" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>38</v>
       </c>
@@ -2569,10 +2559,10 @@
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
     </row>
-    <row r="34" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="52">
         <f>SUM(D24:D33)</f>
         <v>9</v>
@@ -2581,7 +2571,7 @@
       <c r="L34" s="41"/>
       <c r="M34" s="41"/>
     </row>
-    <row r="35" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
         <v>40</v>
       </c>
@@ -2598,7 +2588,7 @@
       <c r="L35" s="41"/>
       <c r="M35" s="41"/>
     </row>
-    <row r="36" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>42</v>
       </c>
@@ -2615,7 +2605,7 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
     </row>
-    <row r="37" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
         <v>44</v>
       </c>
@@ -2632,7 +2622,7 @@
       <c r="L37" s="41"/>
       <c r="M37" s="41"/>
     </row>
-    <row r="38" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
         <v>46</v>
       </c>
@@ -2649,7 +2639,7 @@
       <c r="L38" s="41"/>
       <c r="M38" s="41"/>
     </row>
-    <row r="39" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44" t="s">
         <v>48</v>
       </c>
@@ -2666,7 +2656,7 @@
       <c r="L39" s="41"/>
       <c r="M39" s="41"/>
     </row>
-    <row r="40" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>50</v>
       </c>
@@ -2683,10 +2673,10 @@
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
     </row>
-    <row r="41" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="52">
         <f>SUM(D35:D40)</f>
         <v>4</v>
@@ -2695,7 +2685,7 @@
       <c r="L41" s="41"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="42" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44" t="s">
         <v>52</v>
       </c>
@@ -2712,7 +2702,7 @@
       <c r="L42" s="41"/>
       <c r="M42" s="41"/>
     </row>
-    <row r="43" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>54</v>
       </c>
@@ -2729,7 +2719,7 @@
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
     </row>
-    <row r="44" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2736,7 @@
       <c r="L44" s="41"/>
       <c r="M44" s="41"/>
     </row>
-    <row r="45" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
         <v>57</v>
       </c>
@@ -2763,7 +2753,7 @@
       <c r="L45" s="41"/>
       <c r="M45" s="41"/>
     </row>
-    <row r="46" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44" t="s">
         <v>60</v>
       </c>
@@ -2780,7 +2770,7 @@
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
     </row>
-    <row r="47" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>63</v>
       </c>
@@ -2797,7 +2787,7 @@
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
     </row>
-    <row r="48" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
         <v>66</v>
       </c>
@@ -2814,7 +2804,7 @@
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
     </row>
-    <row r="49" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
         <v>68</v>
       </c>
@@ -2831,7 +2821,7 @@
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
     </row>
-    <row r="50" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="44" t="s">
         <v>70</v>
       </c>
@@ -2848,7 +2838,7 @@
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
     </row>
-    <row r="51" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>73</v>
       </c>
@@ -2865,7 +2855,7 @@
       <c r="L51" s="41"/>
       <c r="M51" s="41"/>
     </row>
-    <row r="52" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
         <v>73</v>
       </c>
@@ -2882,7 +2872,7 @@
       <c r="L52" s="41"/>
       <c r="M52" s="41"/>
     </row>
-    <row r="53" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="44" t="s">
         <v>76</v>
       </c>
@@ -2899,7 +2889,7 @@
       <c r="L53" s="41"/>
       <c r="M53" s="41"/>
     </row>
-    <row r="54" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
         <v>79</v>
       </c>
@@ -2916,7 +2906,7 @@
       <c r="L54" s="41"/>
       <c r="M54" s="41"/>
     </row>
-    <row r="55" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="44" t="s">
         <v>82</v>
       </c>
@@ -2933,7 +2923,7 @@
       <c r="L55" s="41"/>
       <c r="M55" s="41"/>
     </row>
-    <row r="56" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="44" t="s">
         <v>84</v>
       </c>
@@ -2950,7 +2940,7 @@
       <c r="L56" s="41"/>
       <c r="M56" s="41"/>
     </row>
-    <row r="57" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="44" t="s">
         <v>87</v>
       </c>
@@ -2967,10 +2957,10 @@
       <c r="L57" s="41"/>
       <c r="M57" s="41"/>
     </row>
-    <row r="58" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="94"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="96"/>
+    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="52">
         <f>SUM(D42:D57)</f>
         <v>26</v>
@@ -2979,21 +2969,21 @@
       <c r="L58" s="41"/>
       <c r="M58" s="41"/>
     </row>
-    <row r="59" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="55"/>
       <c r="C59" s="56"/>
       <c r="L59" s="41"/>
       <c r="M59" s="41"/>
     </row>
-    <row r="60" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="83" t="s">
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="74"/>
       <c r="L60" s="41"/>
       <c r="M60" s="41"/>
     </row>
-    <row r="61" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="65" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +2993,7 @@
       <c r="L61" s="41"/>
       <c r="M61" s="41"/>
     </row>
-    <row r="62" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="67"/>
       <c r="C62" s="71" t="s">
         <v>91</v>
@@ -3011,7 +3001,7 @@
       <c r="L62" s="41"/>
       <c r="M62" s="41"/>
     </row>
-    <row r="63" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="67">
         <v>1</v>
       </c>
@@ -3021,7 +3011,7 @@
       <c r="L63" s="41"/>
       <c r="M63" s="41"/>
     </row>
-    <row r="64" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="67">
         <v>1</v>
       </c>
@@ -3031,7 +3021,7 @@
       <c r="L64" s="41"/>
       <c r="M64" s="41"/>
     </row>
-    <row r="65" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="67">
         <v>1</v>
       </c>
@@ -3041,7 +3031,7 @@
       <c r="L65" s="41"/>
       <c r="M65" s="41"/>
     </row>
-    <row r="66" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="67">
         <v>1</v>
       </c>
@@ -3051,7 +3041,7 @@
       <c r="L66" s="41"/>
       <c r="M66" s="41"/>
     </row>
-    <row r="67" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="67">
         <v>1</v>
       </c>
@@ -3061,7 +3051,7 @@
       <c r="L67" s="41"/>
       <c r="M67" s="41"/>
     </row>
-    <row r="68" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="67">
         <v>1</v>
       </c>
@@ -3071,7 +3061,7 @@
       <c r="L68" s="41"/>
       <c r="M68" s="41"/>
     </row>
-    <row r="69" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="67">
         <v>1</v>
       </c>
@@ -3081,7 +3071,7 @@
       <c r="L69" s="41"/>
       <c r="M69" s="41"/>
     </row>
-    <row r="70" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="67">
         <v>1</v>
       </c>
@@ -3091,7 +3081,7 @@
       <c r="L70" s="41"/>
       <c r="M70" s="41"/>
     </row>
-    <row r="71" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="67">
         <v>2</v>
       </c>
@@ -3101,7 +3091,7 @@
       <c r="L71" s="41"/>
       <c r="M71" s="41"/>
     </row>
-    <row r="72" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="67">
         <v>1</v>
       </c>
@@ -3111,7 +3101,7 @@
       <c r="L72" s="41"/>
       <c r="M72" s="41"/>
     </row>
-    <row r="73" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="67">
         <v>1</v>
       </c>
@@ -3121,7 +3111,7 @@
       <c r="L73" s="41"/>
       <c r="M73" s="41"/>
     </row>
-    <row r="74" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="67">
         <v>1</v>
       </c>
@@ -3131,7 +3121,7 @@
       <c r="L74" s="41"/>
       <c r="M74" s="41"/>
     </row>
-    <row r="75" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="67">
         <v>1</v>
       </c>
@@ -3141,7 +3131,7 @@
       <c r="L75" s="41"/>
       <c r="M75" s="41"/>
     </row>
-    <row r="76" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="67">
         <v>2</v>
       </c>
@@ -3151,7 +3141,7 @@
       <c r="L76" s="41"/>
       <c r="M76" s="41"/>
     </row>
-    <row r="77" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="67">
         <v>1</v>
       </c>
@@ -3161,7 +3151,7 @@
       <c r="L77" s="41"/>
       <c r="M77" s="41"/>
     </row>
-    <row r="78" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="67">
         <v>4</v>
       </c>
@@ -3171,7 +3161,7 @@
       <c r="L78" s="41"/>
       <c r="M78" s="41"/>
     </row>
-    <row r="79" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="67">
         <v>2</v>
       </c>
@@ -3181,7 +3171,7 @@
       <c r="L79" s="41"/>
       <c r="M79" s="41"/>
     </row>
-    <row r="80" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="68">
         <v>1</v>
       </c>
@@ -3191,7 +3181,7 @@
       <c r="L80" s="41"/>
       <c r="M80" s="41"/>
     </row>
-    <row r="81" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="68">
         <v>1</v>
       </c>
@@ -3201,7 +3191,7 @@
       <c r="L81" s="41"/>
       <c r="M81" s="41"/>
     </row>
-    <row r="82" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="67"/>
       <c r="C82" s="72" t="s">
         <v>112</v>
@@ -3209,7 +3199,7 @@
       <c r="L82" s="41"/>
       <c r="M82" s="41"/>
     </row>
-    <row r="83" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="70">
         <f>SUM(B63:B82)</f>
         <v>25</v>
@@ -3218,7 +3208,7 @@
       <c r="L83" s="41"/>
       <c r="M83" s="41"/>
     </row>
-    <row r="84" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="67"/>
       <c r="C84" s="71" t="s">
         <v>113</v>
@@ -3226,7 +3216,7 @@
       <c r="L84" s="41"/>
       <c r="M84" s="41"/>
     </row>
-    <row r="85" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="67">
         <v>1</v>
       </c>
@@ -3236,7 +3226,7 @@
       <c r="L85" s="41"/>
       <c r="M85" s="41"/>
     </row>
-    <row r="86" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="67">
         <v>1</v>
       </c>
@@ -3246,7 +3236,7 @@
       <c r="L86" s="41"/>
       <c r="M86" s="41"/>
     </row>
-    <row r="87" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="67">
         <v>1</v>
       </c>
@@ -3256,7 +3246,7 @@
       <c r="L87" s="41"/>
       <c r="M87" s="41"/>
     </row>
-    <row r="88" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="67">
         <v>1</v>
       </c>
@@ -3266,7 +3256,7 @@
       <c r="L88" s="41"/>
       <c r="M88" s="41"/>
     </row>
-    <row r="89" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="67">
         <v>1</v>
       </c>
@@ -3276,7 +3266,7 @@
       <c r="L89" s="41"/>
       <c r="M89" s="41"/>
     </row>
-    <row r="90" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="67">
         <v>1</v>
       </c>
@@ -3286,7 +3276,7 @@
       <c r="L90" s="41"/>
       <c r="M90" s="41"/>
     </row>
-    <row r="91" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="67">
         <v>1</v>
       </c>
@@ -3296,7 +3286,7 @@
       <c r="L91" s="41"/>
       <c r="M91" s="41"/>
     </row>
-    <row r="92" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="67">
         <v>1</v>
       </c>
@@ -3306,7 +3296,7 @@
       <c r="L92" s="41"/>
       <c r="M92" s="41"/>
     </row>
-    <row r="93" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="67">
         <v>1</v>
       </c>
@@ -3316,7 +3306,7 @@
       <c r="L93" s="41"/>
       <c r="M93" s="41"/>
     </row>
-    <row r="94" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="67">
         <v>1</v>
       </c>
@@ -3326,7 +3316,7 @@
       <c r="L94" s="41"/>
       <c r="M94" s="41"/>
     </row>
-    <row r="95" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="67">
         <v>1</v>
       </c>
@@ -3336,7 +3326,7 @@
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
     </row>
-    <row r="96" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="70">
         <f>SUM(B85:B95)</f>
         <v>11</v>
@@ -3345,19 +3335,19 @@
       <c r="L96" s="41"/>
       <c r="M96" s="41"/>
     </row>
-    <row r="97" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="55"/>
       <c r="C97" s="56"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
     </row>
-    <row r="98" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="L98" s="41"/>
       <c r="M98" s="41"/>
     </row>
-    <row r="99" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>1</v>
       </c>
@@ -3367,7 +3357,7 @@
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
     </row>
-    <row r="100" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>1</v>
       </c>
@@ -3377,7 +3367,7 @@
       <c r="L100" s="41"/>
       <c r="M100" s="41"/>
     </row>
-    <row r="101" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>1</v>
       </c>
@@ -3387,7 +3377,7 @@
       <c r="L101" s="41"/>
       <c r="M101" s="41"/>
     </row>
-    <row r="102" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>2</v>
       </c>
@@ -3397,7 +3387,7 @@
       <c r="L102" s="41"/>
       <c r="M102" s="41"/>
     </row>
-    <row r="103" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
         <f>SUM(B99:B102)</f>
         <v>5</v>
@@ -3406,19 +3396,19 @@
       <c r="L103" s="41"/>
       <c r="M103" s="41"/>
     </row>
-    <row r="104" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
       <c r="L104" s="41"/>
       <c r="M104" s="41"/>
     </row>
-    <row r="105" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
       <c r="L105" s="41"/>
       <c r="M105" s="41"/>
     </row>
-    <row r="106" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="60" t="s">
         <v>156</v>
       </c>
@@ -3428,7 +3418,7 @@
       <c r="L106" s="41"/>
       <c r="M106" s="41"/>
     </row>
-    <row r="107" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="62"/>
       <c r="C107" s="61" t="s">
         <v>158</v>
@@ -3436,7 +3426,7 @@
       <c r="L107" s="41"/>
       <c r="M107" s="41"/>
     </row>
-    <row r="108" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="62"/>
       <c r="C108" s="61" t="s">
         <v>159</v>
@@ -3444,7 +3434,7 @@
       <c r="L108" s="41"/>
       <c r="M108" s="41"/>
     </row>
-    <row r="109" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="62"/>
       <c r="C109" s="61" t="s">
         <v>160</v>
@@ -3452,7 +3442,7 @@
       <c r="L109" s="41"/>
       <c r="M109" s="41"/>
     </row>
-    <row r="110" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="62"/>
       <c r="C110" s="61" t="s">
         <v>161</v>
@@ -3460,13 +3450,13 @@
       <c r="L110" s="41"/>
       <c r="M110" s="41"/>
     </row>
-    <row r="111" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="62"/>
       <c r="C111" s="61"/>
       <c r="L111" s="41"/>
       <c r="M111" s="41"/>
     </row>
-    <row r="112" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="63" t="s">
         <v>136</v>
       </c>
@@ -3476,7 +3466,7 @@
       <c r="L112" s="41"/>
       <c r="M112" s="41"/>
     </row>
-    <row r="113" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="63"/>
       <c r="C113" s="64" t="s">
         <v>163</v>
@@ -3484,7 +3474,7 @@
       <c r="L113" s="41"/>
       <c r="M113" s="41"/>
     </row>
-    <row r="114" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="63"/>
       <c r="C114" s="64" t="s">
         <v>164</v>
@@ -3492,88 +3482,88 @@
       <c r="L114" s="41"/>
       <c r="M114" s="41"/>
     </row>
-    <row r="115" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="57"/>
       <c r="C115" s="58"/>
       <c r="L115" s="41"/>
       <c r="M115" s="41"/>
     </row>
-    <row r="116" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
       <c r="L116" s="41"/>
       <c r="M116" s="41"/>
     </row>
-    <row r="117" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="57"/>
       <c r="C117" s="58"/>
       <c r="L117" s="41"/>
       <c r="M117" s="41"/>
     </row>
-    <row r="118" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:13" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="2:13" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:13" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C127" s="59"/>
     </row>
-    <row r="128" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C130" s="59"/>
     </row>
-    <row r="131" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
         <v>89</v>
       </c>
@@ -3581,17 +3571,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC72-EQUIPO DHS-DCS ACERO # 2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC72-EQUIPO DHS-DCS ACERO # 2.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B2199E95-96AC-44C8-B8D0-F4486AF7AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF299DA-7A10-45ED-BD69-06560C1DFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="90" windowWidth="11070" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1264,6 +1275,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,36 +1346,6 @@
     </xf>
     <xf numFmtId="3" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,8 +1714,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2102,13 +2113,13 @@
     <row r="2" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="90"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2119,7 +2130,7 @@
     <row r="3" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="88"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
@@ -2134,13 +2145,13 @@
     <row r="4" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2151,19 +2162,19 @@
     <row r="5" spans="1:14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,8 +2183,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
@@ -2182,7 +2193,7 @@
       <c r="B7" s="23"/>
       <c r="C7" s="24">
         <f ca="1">NOW()</f>
-        <v>45397.759814814817</v>
+        <v>45401.815263657409</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1</v>
@@ -2229,10 +2240,10 @@
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="30" t="s">
         <v>135</v>
       </c>
@@ -2560,9 +2571,9 @@
       <c r="M33" s="41"/>
     </row>
     <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="52">
         <f>SUM(D24:D33)</f>
         <v>9</v>
@@ -2674,9 +2685,9 @@
       <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="52">
         <f>SUM(D35:D40)</f>
         <v>4</v>
@@ -2958,9 +2969,9 @@
       <c r="M57" s="41"/>
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="86"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="52">
         <f>SUM(D42:D57)</f>
         <v>26</v>
@@ -2976,10 +2987,10 @@
       <c r="M59" s="41"/>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="74"/>
+      <c r="C60" s="84"/>
       <c r="L60" s="41"/>
       <c r="M60" s="41"/>
     </row>
@@ -3571,17 +3582,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A58:C58"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
